--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>-3.845403119859708</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.72181638639612</v>
+        <v>-11.80033092653795</v>
       </c>
       <c r="F2" t="n">
-        <v>1.539599731136527</v>
+        <v>3.069382948980851</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.98498158246377</v>
+        <v>-10.94532499715619</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.71646841547024</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.3198204109948</v>
+        <v>-12.46877154042511</v>
       </c>
       <c r="F3" t="n">
-        <v>1.649679813429759</v>
+        <v>3.171686203386098</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.76085445011627</v>
+        <v>-10.6183840105926</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.580614823828767</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.85295207501273</v>
+        <v>-13.02362333485747</v>
       </c>
       <c r="F4" t="n">
-        <v>1.510822849490413</v>
+        <v>3.044324281341787</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.57356905796537</v>
+        <v>-10.25157696187596</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.45395258043127</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.4169422968286</v>
+        <v>-13.60683305724499</v>
       </c>
       <c r="F5" t="n">
-        <v>1.739623933952418</v>
+        <v>3.201824684527752</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.34338018940215</v>
+        <v>-9.989835643464176</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.343323753718376</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.1660314962208</v>
+        <v>-14.41720732623931</v>
       </c>
       <c r="F6" t="n">
-        <v>1.722473017229756</v>
+        <v>3.19339324149768</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.914371609884467</v>
+        <v>-9.472244542919377</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.260979604735498</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.73405414731193</v>
+        <v>-14.98237585531094</v>
       </c>
       <c r="F7" t="n">
-        <v>1.803776217876875</v>
+        <v>3.232670150022858</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.809397525699508</v>
+        <v>-9.195787476113489</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.212139901705672</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.50592395364873</v>
+        <v>-15.87237751018864</v>
       </c>
       <c r="F8" t="n">
-        <v>2.107727120650388</v>
+        <v>3.562543812422988</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.185379095354318</v>
+        <v>-8.576901228482257</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.201412366597652</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.35803648410247</v>
+        <v>-16.68468944000353</v>
       </c>
       <c r="F9" t="n">
-        <v>2.181934293157291</v>
+        <v>3.596871830473994</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.561805803305747</v>
+        <v>-7.953851628547355</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.223676877737276</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.01427507174115</v>
+        <v>-17.34717305609772</v>
       </c>
       <c r="F10" t="n">
-        <v>2.450221762989941</v>
+        <v>3.873302712674198</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.951115337253434</v>
+        <v>-7.31803703334177</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.272489801860865</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.99007058714067</v>
+        <v>-18.30795170013778</v>
       </c>
       <c r="F11" t="n">
-        <v>2.612540133621661</v>
+        <v>4.008284354972394</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.648093987981684</v>
+        <v>-7.007382871513294</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.335248534976228</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.8987811427792</v>
+        <v>-19.25044039710796</v>
       </c>
       <c r="F12" t="n">
-        <v>2.874726590330068</v>
+        <v>4.351197951002884</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.104056435696599</v>
+        <v>-6.387252855112097</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.39731863088955</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.48993789299166</v>
+        <v>-19.88172505553031</v>
       </c>
       <c r="F13" t="n">
-        <v>2.832019498460357</v>
+        <v>4.413805343192017</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.410819000227204</v>
+        <v>-5.657121310234718</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.446347947991605</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.44335866283467</v>
+        <v>-20.81350424877595</v>
       </c>
       <c r="F14" t="n">
-        <v>3.28441093085336</v>
+        <v>4.766904750833369</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.60472591426213</v>
+        <v>-4.875681030520614</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.469875357730219</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.34873068124855</v>
+        <v>-21.65202696887998</v>
       </c>
       <c r="F15" t="n">
-        <v>3.351783921276882</v>
+        <v>4.854544626055883</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.274564221199482</v>
+        <v>-4.505679459910593</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.462695787133121</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.11821768846816</v>
+        <v>-22.4688033739639</v>
       </c>
       <c r="F16" t="n">
-        <v>3.523607303771695</v>
+        <v>5.058836919598177</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.831494508429788</v>
+        <v>-4.089750090931798</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.421258882208519</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.01409778732179</v>
+        <v>-23.41824408374304</v>
       </c>
       <c r="F17" t="n">
-        <v>3.852355028127437</v>
+        <v>5.408034820992695</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.823154711519608</v>
+        <v>-3.992029142521154</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.347950440397322</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.99391263969373</v>
+        <v>-24.29724820423368</v>
       </c>
       <c r="F18" t="n">
-        <v>3.721065415230608</v>
+        <v>5.215237569345437</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.57369397317336</v>
+        <v>-3.666554493875844</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.246921193858274</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.66592745225669</v>
+        <v>-25.03848202192085</v>
       </c>
       <c r="F19" t="n">
-        <v>3.980319196102467</v>
+        <v>5.452758127500031</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.557524979163828</v>
+        <v>-3.605832393295919</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.123689347525749</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.09446470887207</v>
+        <v>-25.43710336654288</v>
       </c>
       <c r="F20" t="n">
-        <v>4.239284946311809</v>
+        <v>5.64783343984175</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.246334032918842</v>
+        <v>-3.283683189572407</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.98770553384944</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.78415413027135</v>
+        <v>-26.03987298937595</v>
       </c>
       <c r="F21" t="n">
-        <v>4.150257286988071</v>
+        <v>5.609996684629161</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.228960547047871</v>
+        <v>-3.380448399875605</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.845887951787358</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.29421715668216</v>
+        <v>-26.53516789818129</v>
       </c>
       <c r="F22" t="n">
-        <v>4.338943555543028</v>
+        <v>5.721543104840667</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.281657065985819</v>
+        <v>-3.300951937020644</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.707129914047012</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.72528122774599</v>
+        <v>-26.93957604065936</v>
       </c>
       <c r="F23" t="n">
-        <v>4.315874917935906</v>
+        <v>5.710021878339949</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.34295522789078</v>
+        <v>-3.404224021836179</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.575694409109965</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.12611517154827</v>
+        <v>-27.39819940920503</v>
       </c>
       <c r="F24" t="n">
-        <v>4.537658528074746</v>
+        <v>5.905856544246487</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.602955270024618</v>
+        <v>-3.705451725618612</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.453086152567181</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.2258392422937</v>
+        <v>-27.45323945035164</v>
       </c>
       <c r="F25" t="n">
-        <v>4.345542076175257</v>
+        <v>5.696196406539086</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.310342301512041</v>
+        <v>-3.420864338748013</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.338176135614448</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.60071114956084</v>
+        <v>-27.79403209332177</v>
       </c>
       <c r="F26" t="n">
-        <v>4.515401613243812</v>
+        <v>5.781662959489873</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.352682808902182</v>
+        <v>-3.459617555159522</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.222459579532694</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.48129625534146</v>
+        <v>-27.73350637728447</v>
       </c>
       <c r="F27" t="n">
-        <v>4.500188357341726</v>
+        <v>5.839792784107138</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.291057339426178</v>
+        <v>-3.379283184922691</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.099846805222959</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.76669536498825</v>
+        <v>-28.0231866699605</v>
       </c>
       <c r="F28" t="n">
-        <v>4.25051814215001</v>
+        <v>5.608818377373406</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.386330027205418</v>
+        <v>-3.548841599025885</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.958486237407068</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.76134061312598</v>
+        <v>-28.12521498600607</v>
       </c>
       <c r="F29" t="n">
-        <v>4.375209234414609</v>
+        <v>5.699076713164265</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.435701101221567</v>
+        <v>-3.624213986485702</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.790829005182777</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.43433416504819</v>
+        <v>-27.77643603830249</v>
       </c>
       <c r="F30" t="n">
-        <v>4.225799874384831</v>
+        <v>5.555637443230315</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.565485099291598</v>
+        <v>-3.790028001976163</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.591721175712915</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.208361018</v>
+        <v>-27.61503412886969</v>
       </c>
       <c r="F31" t="n">
-        <v>4.210010557157709</v>
+        <v>5.542361848148804</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.455169355547214</v>
+        <v>-3.696981005680016</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.359373234634953</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.91963646343141</v>
+        <v>-27.33468864811981</v>
       </c>
       <c r="F32" t="n">
-        <v>4.159369529765913</v>
+        <v>5.575354451309954</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.672514675022708</v>
+        <v>-4.005252368391298</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.10008423066818</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.70987158730128</v>
+        <v>-27.17074683193572</v>
       </c>
       <c r="F33" t="n">
-        <v>4.232791164102313</v>
+        <v>5.620889480593477</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.015768670927082</v>
+        <v>-4.342929043285096</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.8194717468370107</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.21582044726591</v>
+        <v>-26.68297999726437</v>
       </c>
       <c r="F34" t="n">
-        <v>4.153085224401885</v>
+        <v>5.630734892330455</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.186047161686572</v>
+        <v>-4.58423327696095</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.5314063155600364</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.88886636839948</v>
+        <v>-26.38344120054852</v>
       </c>
       <c r="F35" t="n">
-        <v>4.138238552979367</v>
+        <v>5.563728486386501</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.323752002975847</v>
+        <v>-4.773351591509683</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.2475986721041741</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.60655704222334</v>
+        <v>-26.12854715652296</v>
       </c>
       <c r="F36" t="n">
-        <v>4.146853288249223</v>
+        <v>5.60308394872873</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.302804318429085</v>
+        <v>-4.877199737650254</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.0175805623883402</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.1347628170189</v>
+        <v>-25.65232773295801</v>
       </c>
       <c r="F37" t="n">
-        <v>3.933946259437073</v>
+        <v>5.436445118159241</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.62308132284623</v>
+        <v>-5.263907086686316</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2511714943402232</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.58187486801281</v>
+        <v>-25.18117503059282</v>
       </c>
       <c r="F38" t="n">
-        <v>4.342059523619358</v>
+        <v>5.7839933893957</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.582246430282886</v>
+        <v>-5.240668249142253</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4440538278251424</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.21711021853948</v>
+        <v>-24.80683990774219</v>
       </c>
       <c r="F39" t="n">
-        <v>4.286443421147706</v>
+        <v>5.778232776145341</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.85222280718212</v>
+        <v>-5.479262376129869</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5880760445790889</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.6427639851758</v>
+        <v>-24.24315080889167</v>
       </c>
       <c r="F40" t="n">
-        <v>4.318571932321302</v>
+        <v>5.871868926069366</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.760615964198562</v>
+        <v>-5.438047806784115</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6815461412161415</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.18953464540092</v>
+        <v>-23.78384664059823</v>
       </c>
       <c r="F41" t="n">
-        <v>4.482251902448561</v>
+        <v>6.07108140610907</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.022802420906968</v>
+        <v>-5.756203858140901</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7240828855699581</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.63610991197832</v>
+        <v>-23.26111026503664</v>
       </c>
       <c r="F42" t="n">
-        <v>4.495344205290287</v>
+        <v>6.053223505032956</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.133982256638906</v>
+        <v>-5.804632286352446</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7201460210088779</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.0127722813809</v>
+        <v>-22.61916847210113</v>
       </c>
       <c r="F43" t="n">
-        <v>4.429856506475973</v>
+        <v>5.975271933913318</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.001998751691466</v>
+        <v>-5.7653030086159</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6749658771502856</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.76044432871231</v>
+        <v>-22.3309937942519</v>
       </c>
       <c r="F44" t="n">
-        <v>4.500319280370143</v>
+        <v>6.127535415962592</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.907485417477045</v>
+        <v>-5.769937683821871</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5951730961438569</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.01867372660864</v>
+        <v>-21.6645824873052</v>
       </c>
       <c r="F45" t="n">
-        <v>4.395947442115903</v>
+        <v>6.014967796129432</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.912067723471649</v>
+        <v>-5.762095394419677</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4857678955660285</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.46425397817007</v>
+        <v>-21.12637100978468</v>
       </c>
       <c r="F46" t="n">
-        <v>4.121716066793109</v>
+        <v>5.774645485166708</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.908022201893556</v>
+        <v>-5.766965731076799</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3521626560788735</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.63081107156863</v>
+        <v>-20.35979049379593</v>
       </c>
       <c r="F47" t="n">
-        <v>4.389375106089356</v>
+        <v>6.029159852409863</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.00688218065143</v>
+        <v>-5.870250908195176</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1969897892886687</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.92783296278499</v>
+        <v>-19.6855238051442</v>
       </c>
       <c r="F48" t="n">
-        <v>4.233341040821665</v>
+        <v>5.912847833963968</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.214958149714982</v>
+        <v>-6.04185172154168</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02369469614917775</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.39428234507612</v>
+        <v>-19.19663103242846</v>
       </c>
       <c r="F49" t="n">
-        <v>4.327160482985474</v>
+        <v>6.015596226665835</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.507073610719574</v>
+        <v>-6.245109723159477</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1656405724521486</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.80058568811237</v>
+        <v>-18.61603977060928</v>
       </c>
       <c r="F50" t="n">
-        <v>4.208570403845119</v>
+        <v>5.860635730231165</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.348866223180156</v>
+        <v>-6.148279051342071</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3698148964788405</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.37754719869052</v>
+        <v>-18.15581914111693</v>
       </c>
       <c r="F51" t="n">
-        <v>4.34821290595497</v>
+        <v>6.026541391841518</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.618476015599821</v>
+        <v>-6.440276681621087</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.5848436043082738</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.06982571269859</v>
+        <v>-17.87158524642305</v>
       </c>
       <c r="F52" t="n">
-        <v>4.211424525864616</v>
+        <v>5.884306613769006</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.624315182667231</v>
+        <v>-6.474748715003352</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.8101279933371117</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.12003151074273</v>
+        <v>-16.97791774674967</v>
       </c>
       <c r="F53" t="n">
-        <v>4.267276289787419</v>
+        <v>5.918294231946127</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.715345964325752</v>
+        <v>-6.562964651550902</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.039644027096859</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.47404419622912</v>
+        <v>-16.33441796977599</v>
       </c>
       <c r="F54" t="n">
-        <v>4.131116340233468</v>
+        <v>5.752833708632393</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.12962570314649</v>
+        <v>-6.963615303113404</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.27137716943028</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.06010485728227</v>
+        <v>-15.93854600875072</v>
       </c>
       <c r="F55" t="n">
-        <v>4.20500929747217</v>
+        <v>5.856603300955913</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.380212379537127</v>
+        <v>-7.227294282345767</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.499724619956379</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.94569122274843</v>
+        <v>-15.87605644728717</v>
       </c>
       <c r="F56" t="n">
-        <v>4.054316891763903</v>
+        <v>5.665769894734915</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.543525765184818</v>
+        <v>-7.422579071532953</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.719565193968629</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.58434366431679</v>
+        <v>-15.51809979529153</v>
       </c>
       <c r="F57" t="n">
-        <v>4.131168709444835</v>
+        <v>5.681323550510885</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.406737385094464</v>
+        <v>-7.30476143826026</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.926892030974159</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.43551036561205</v>
+        <v>-15.27675628470715</v>
       </c>
       <c r="F58" t="n">
-        <v>4.024126041410883</v>
+        <v>5.562288333073911</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.673087194106539</v>
+        <v>-7.526099910102481</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.114823390430642</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.80577059892502</v>
+        <v>-14.63679142950074</v>
       </c>
       <c r="F59" t="n">
-        <v>4.06848276343865</v>
+        <v>5.556449166006502</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.064468495257099</v>
+        <v>-7.865766615028222</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.280194525473662</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.45144051481655</v>
+        <v>-14.38852209071309</v>
       </c>
       <c r="F60" t="n">
-        <v>4.196761146681882</v>
+        <v>5.657128974859375</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.086764686996558</v>
+        <v>-7.94471320116383</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.416773717198601</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.34236853984213</v>
+        <v>-14.20479780493515</v>
       </c>
       <c r="F61" t="n">
-        <v>4.167879526613035</v>
+        <v>5.602586441220744</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.259740192141443</v>
+        <v>-8.067466632607854</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.521188257988666</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.02552171876952</v>
+        <v>-13.8511354282716</v>
       </c>
       <c r="F62" t="n">
-        <v>4.132477939729007</v>
+        <v>5.527436622909237</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.389209974943272</v>
+        <v>-8.208064872825149</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.590445544025521</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.53126110188867</v>
+        <v>-13.4167851891945</v>
       </c>
       <c r="F63" t="n">
-        <v>3.988593531498438</v>
+        <v>5.417304171404637</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.461152179058557</v>
+        <v>-8.287639889497161</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.622406442811422</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.4173711594685</v>
+        <v>-13.33405492753763</v>
       </c>
       <c r="F64" t="n">
-        <v>3.957983727454482</v>
+        <v>5.320552053404281</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.301674838143491</v>
+        <v>-8.134302838614865</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.617370719579481</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.27298924372994</v>
+        <v>-13.11445773197336</v>
       </c>
       <c r="F65" t="n">
-        <v>3.846384938031609</v>
+        <v>5.243909712568817</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.436774311167262</v>
+        <v>-8.254581824821802</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.576091022946541</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.33894826544656</v>
+        <v>-13.11096208711462</v>
       </c>
       <c r="F66" t="n">
-        <v>3.888803999238802</v>
+        <v>5.268287580460111</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.571179892140423</v>
+        <v>-8.370016658977301</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.499518965586268</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.23131644378473</v>
+        <v>-13.06016395208872</v>
       </c>
       <c r="F67" t="n">
-        <v>3.755026848802045</v>
+        <v>5.211257509281552</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.514228374778915</v>
+        <v>-8.327636874678634</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.390203730027145</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.96173283597075</v>
+        <v>-12.73252907347453</v>
       </c>
       <c r="F68" t="n">
-        <v>3.503968849509106</v>
+        <v>4.942603454969333</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.506137331622726</v>
+        <v>-8.336618194428057</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.248345597499632</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.93671344524021</v>
+        <v>-12.7479256216164</v>
       </c>
       <c r="F69" t="n">
-        <v>3.419706788419757</v>
+        <v>4.899477409408687</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.401307262769027</v>
+        <v>-8.248742657754393</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.076881106304477</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.05601050873402</v>
+        <v>-12.78349740843737</v>
       </c>
       <c r="F70" t="n">
-        <v>3.349086906891487</v>
+        <v>4.83100466554646</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.479965818242118</v>
+        <v>-8.348558374619712</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.878396929434282</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.17289858850495</v>
+        <v>-12.86673826990506</v>
       </c>
       <c r="F71" t="n">
-        <v>3.301745139815805</v>
+        <v>4.794032002321425</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.390126436142193</v>
+        <v>-8.252329948733026</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.656400921442851</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.14205312300984</v>
+        <v>-12.82604739267298</v>
       </c>
       <c r="F72" t="n">
-        <v>3.123166129054662</v>
+        <v>4.563659841518414</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.415014903844314</v>
+        <v>-8.279326277192665</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.417611394302232</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.32249124077451</v>
+        <v>-12.96087192733707</v>
       </c>
       <c r="F73" t="n">
-        <v>2.963754249653805</v>
+        <v>4.44598622357698</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.070333846930192</v>
+        <v>-7.932707559457967</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.165452178996481</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.62881185036237</v>
+        <v>-13.27376487295148</v>
       </c>
       <c r="F74" t="n">
-        <v>2.983026119436825</v>
+        <v>4.482906517590648</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.792659195960024</v>
+        <v>-7.631924993972152</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9086127404452295</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.90986431546571</v>
+        <v>-13.51598556782626</v>
       </c>
       <c r="F75" t="n">
-        <v>2.853517059726471</v>
+        <v>4.361619424064897</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.484348556340216</v>
+        <v>-7.386810900169357</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6514500715269731</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.06650062666412</v>
+        <v>-13.66491051265089</v>
       </c>
       <c r="F76" t="n">
-        <v>2.710653851117557</v>
+        <v>4.240044299876629</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.481625357349137</v>
+        <v>-7.3486075604772</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4009858259124323</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.41823843480993</v>
+        <v>-13.99513766722775</v>
       </c>
       <c r="F77" t="n">
-        <v>2.83620903536971</v>
+        <v>4.401027255618493</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.353072035746229</v>
+        <v>-7.189811019309905</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1630269121128729</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.67971790716488</v>
+        <v>-14.20659145042447</v>
       </c>
       <c r="F78" t="n">
-        <v>2.689103920640076</v>
+        <v>4.273665333574182</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.037901029437357</v>
+        <v>-6.900156911239558</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.0582892275629697</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.01196127637937</v>
+        <v>-14.56448264090589</v>
       </c>
       <c r="F79" t="n">
-        <v>2.431683062166058</v>
+        <v>4.031981423115918</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.086381826860269</v>
+        <v>-6.895378220702328</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2563038955122466</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.49828795773812</v>
+        <v>-15.03351439021073</v>
       </c>
       <c r="F80" t="n">
-        <v>2.637965385740293</v>
+        <v>4.247297435650945</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.982062357817395</v>
+        <v>-6.829235906745927</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.4284882711908816</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.95632217265591</v>
+        <v>-15.54471644696876</v>
       </c>
       <c r="F81" t="n">
-        <v>2.571351748881591</v>
+        <v>4.142297166860302</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.915003582662075</v>
+        <v>-6.718357193979349</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.568895381370226</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.62097911102182</v>
+        <v>-16.21625993662942</v>
       </c>
       <c r="F82" t="n">
-        <v>2.62314489892346</v>
+        <v>4.187072842579005</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.809034483461144</v>
+        <v>-6.647645666331186</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.675656944223811</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.32861807961711</v>
+        <v>-16.95974563040536</v>
       </c>
       <c r="F83" t="n">
-        <v>2.654487871926552</v>
+        <v>4.217054216086558</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.811247082641396</v>
+        <v>-6.576528277294931</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.7469357593179711</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.1563658344824</v>
+        <v>-17.75753819636878</v>
       </c>
       <c r="F84" t="n">
-        <v>2.655666179182307</v>
+        <v>4.24604057457814</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.483978788506769</v>
+        <v>-6.253082935590088</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.7827516198440353</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.49942662919803</v>
+        <v>-19.07305278590541</v>
       </c>
       <c r="F85" t="n">
-        <v>2.618222193054971</v>
+        <v>4.155232362067927</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.127239720675417</v>
+        <v>-5.94893564827395</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.7846465225804929</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.53382329211712</v>
+        <v>-20.04117621183969</v>
       </c>
       <c r="F86" t="n">
-        <v>2.581825591154972</v>
+        <v>4.095950414800591</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.746031138832879</v>
+        <v>-5.556664070530154</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7547036237192268</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.55264011465456</v>
+        <v>-21.13113660801907</v>
       </c>
       <c r="F87" t="n">
-        <v>2.441999796805338</v>
+        <v>4.028027547657717</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.652264065880437</v>
+        <v>-5.483962512850049</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6966564808601935</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.9775670790395</v>
+        <v>-22.46681334393196</v>
       </c>
       <c r="F88" t="n">
-        <v>2.406938609795195</v>
+        <v>3.958009912060166</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.317271313069193</v>
+        <v>-5.196861403833838</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.614676281495528</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.50965454218397</v>
+        <v>-24.01395695534441</v>
       </c>
       <c r="F89" t="n">
-        <v>2.51824936855555</v>
+        <v>4.057982736559587</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.449281002622317</v>
+        <v>-5.326723955720919</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.5137011992818815</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.8974910126183</v>
+        <v>-25.43876608900378</v>
       </c>
       <c r="F90" t="n">
-        <v>2.51309100123591</v>
+        <v>3.994013744874913</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.382078212135736</v>
+        <v>-5.245329108953907</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3991470834691433</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.35524038022745</v>
+        <v>-26.88741630613793</v>
       </c>
       <c r="F91" t="n">
-        <v>2.437181829359583</v>
+        <v>3.885164339048802</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.248615276967181</v>
+        <v>-5.117378033281718</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2766701532054809</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.05432016611813</v>
+        <v>-28.63908787254382</v>
       </c>
       <c r="F92" t="n">
-        <v>2.491829101420947</v>
+        <v>3.905823992933046</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.434539069622533</v>
+        <v>-5.259272411480346</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1508194922236909</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.95752204561416</v>
+        <v>-30.64197454587676</v>
       </c>
       <c r="F93" t="n">
-        <v>2.51460970836555</v>
+        <v>3.939523580447649</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.779207034233814</v>
+        <v>-5.577127339871772</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02737183553142902</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.11169027828325</v>
+        <v>-32.74496496673753</v>
       </c>
       <c r="F94" t="n">
-        <v>2.46818440248879</v>
+        <v>3.883907477975996</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.590677873312957</v>
+        <v>-5.378268352008794</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09005729479438694</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.97777547922298</v>
+        <v>-34.76200441944238</v>
       </c>
       <c r="F95" t="n">
-        <v>2.291281206491387</v>
+        <v>3.662019129414423</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.858991527751292</v>
+        <v>-5.629326351301733</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.197056299937848</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.44712781050378</v>
+        <v>-37.21877504769228</v>
       </c>
       <c r="F96" t="n">
-        <v>2.327127931672033</v>
+        <v>3.5504988938086</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.14964065083761</v>
+        <v>-5.835490844150393</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2902989960598075</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.72661556597387</v>
+        <v>-39.56503354765516</v>
       </c>
       <c r="F97" t="n">
-        <v>2.337627958551098</v>
+        <v>3.502842911464717</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.53708116883281</v>
+        <v>-6.239768063600053</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3686923200357514</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.98368929897892</v>
+        <v>-41.81252371498007</v>
       </c>
       <c r="F98" t="n">
-        <v>1.899114367170325</v>
+        <v>3.004654603731357</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.592605625184571</v>
+        <v>-6.33737118128512</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4296587075656782</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.25325308889497</v>
+        <v>-44.13530771594774</v>
       </c>
       <c r="F99" t="n">
-        <v>1.833940883624212</v>
+        <v>2.942256688387691</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.931630807271067</v>
+        <v>-6.638913100335755</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4771912373084839</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.53638050455505</v>
+        <v>-46.40657350523322</v>
       </c>
       <c r="F100" t="n">
-        <v>1.593225803576237</v>
+        <v>2.716990525692952</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.983397772707252</v>
+        <v>-6.716079133284889</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5084084298774755</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.60936336730259</v>
+        <v>-48.53844554616284</v>
       </c>
       <c r="F101" t="n">
-        <v>1.298360958974882</v>
+        <v>2.425477310619079</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.949946938946642</v>
+        <v>-6.637040901029389</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5333030902512443</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.21426030990378</v>
+        <v>-51.14130008952072</v>
       </c>
       <c r="F102" t="n">
-        <v>1.221155649117224</v>
+        <v>2.138965355230746</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.19925056965879</v>
+        <v>-6.82098775595564</v>
       </c>
     </row>
   </sheetData>
